--- a/HealthInsurance-Form Fields & Operating Procedure.xlsx
+++ b/HealthInsurance-Form Fields & Operating Procedure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TheRpaCult-main\Healthinsuranceclaim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EAC530-68F4-46D1-94EF-56760342996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Fields" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Fields</t>
   </si>
@@ -127,9 +128,6 @@
     <t>should be a 10 digit number</t>
   </si>
   <si>
-    <t>Loaded dynamically from Input value sheet</t>
-  </si>
-  <si>
     <t>Patient Name</t>
   </si>
   <si>
@@ -142,9 +140,6 @@
     <t>Nature of Illness/diseases</t>
   </si>
   <si>
-    <t>Illness except Dental is allowed</t>
-  </si>
-  <si>
     <t>Critical findings</t>
   </si>
   <si>
@@ -181,18 +176,12 @@
     <t>Only numeric value allowed</t>
   </si>
   <si>
-    <t>pre defined values such as single AC. Double AC</t>
-  </si>
-  <si>
     <t>only two values</t>
   </si>
   <si>
     <t>Policy type</t>
   </si>
   <si>
-    <t>Only loaded for few insurance companies</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -245,12 +234,135 @@
   </si>
   <si>
     <t>should be minimum 8 characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loaded dynamically from Input value </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Insurance Company </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sheet in InputValue excel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only loaded for few insurance companies, values loaded from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Policy Types </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sheet in InputValue excel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loaded dynamically from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Insured Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sheet in InputValue excel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Illness except "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dental"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is allowed</t>
+    </r>
+  </si>
+  <si>
+    <t>should be minimum 8 chracters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loaded dynamically from Input value excel - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Room Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sheet</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -410,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -439,6 +551,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,34 +813,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1"/>
-    <col min="3" max="3" width="74" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1"/>
-    <col min="5" max="5" width="56.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="33.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1"/>
+    <col min="3" max="3" width="40.5546875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1"/>
+    <col min="5" max="5" width="56.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -690,15 +850,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
+      <c r="C2" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
@@ -707,36 +867,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>56</v>
+      <c r="C3" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -765,12 +925,12 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
@@ -795,14 +955,14 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -831,14 +991,14 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
@@ -865,14 +1025,14 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -901,27 +1061,27 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
@@ -948,19 +1108,19 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -984,14 +1144,14 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1018,14 +1178,14 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1054,15 +1214,15 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
+      <c r="C15" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1090,23 +1250,23 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1114,14 +1274,14 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1129,24 +1289,24 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
+      <c r="C20" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>7</v>
@@ -1174,18 +1334,20 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1208,183 +1370,183 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="15" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>54</v>
+      <c r="C29" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>53</v>
+      <c r="C30" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>52</v>
+      <c r="C31" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="23"/>
       <c r="E35" s="25"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="23"/>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="2"/>
@@ -1409,59 +1571,59 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="23"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="24"/>
       <c r="E44" s="23"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="2"/>
@@ -1486,31 +1648,31 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="2"/>
@@ -1535,10 +1697,10 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="2"/>
@@ -1563,17 +1725,17 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
@@ -1584,89 +1746,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="B4" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="16" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
